--- a/data_year/zb/金融业/股票交易情况.xlsx
+++ b/data_year/zb/金融业/股票交易情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,1912 +578,1146 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3439.6</v>
+        <v>26701.5155472</v>
       </c>
       <c r="C2" t="n">
-        <v>47455.75</v>
+        <v>263220.54</v>
       </c>
       <c r="D2" t="n">
-        <v>4558.02</v>
+        <v>41806.4214</v>
       </c>
       <c r="E2" t="n">
-        <v>60278.67</v>
+        <v>543465.92</v>
       </c>
       <c r="F2" t="n">
-        <v>15524.21</v>
+        <v>190917.102</v>
       </c>
       <c r="G2" t="n">
-        <v>1078.33</v>
+        <v>19160.46960591</v>
       </c>
       <c r="H2" t="n">
-        <v>1010</v>
+        <v>2041</v>
       </c>
       <c r="I2" t="n">
-        <v>173.79</v>
+        <v>282.96594524</v>
       </c>
       <c r="J2" t="n">
-        <v>635.1900000000001</v>
+        <v>2202.05</v>
       </c>
       <c r="K2" t="n">
-        <v>200.36</v>
+        <v>345.5552912</v>
       </c>
       <c r="L2" t="n">
-        <v>547.97</v>
+        <v>2167.63</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3099999999999</v>
+        <v>2193.311</v>
       </c>
       <c r="N2" t="n">
-        <v>154.99</v>
+        <v>281.68394524</v>
       </c>
       <c r="O2" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P2" t="n">
-        <v>1174</v>
+        <v>2149</v>
       </c>
       <c r="Q2" t="n">
-        <v>2073.48</v>
+        <v>2808.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1361.21</v>
+        <v>2319.74</v>
       </c>
       <c r="S2" t="n">
-        <v>2125.72</v>
+        <v>3306.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1088</v>
+        <v>2063</v>
       </c>
       <c r="U2" t="n">
-        <v>4758.38211587</v>
+        <v>42151.9766912</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.26370679</v>
+        <v>19442.15355115</v>
       </c>
       <c r="W2" t="n">
-        <v>635.73</v>
+        <v>1290.86</v>
       </c>
       <c r="X2" t="n">
-        <v>414.69</v>
+        <v>890.24</v>
       </c>
       <c r="Y2" t="n">
-        <v>654.37</v>
+        <v>1412.64</v>
       </c>
       <c r="Z2" t="n">
-        <v>48090.94433</v>
+        <v>265422.59</v>
       </c>
       <c r="AA2" t="n">
-        <v>3791.71</v>
+        <v>26984.48149244</v>
       </c>
       <c r="AB2" t="n">
-        <v>60826.6499</v>
+        <v>545633.55</v>
       </c>
       <c r="AC2" t="n">
-        <v>16087.52</v>
+        <v>193110.413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4650.45</v>
+        <v>29448.5950523</v>
       </c>
       <c r="C3" t="n">
-        <v>42245.56</v>
+        <v>213309.84</v>
       </c>
       <c r="D3" t="n">
-        <v>2463.41</v>
+        <v>33748.7215</v>
       </c>
       <c r="E3" t="n">
-        <v>33242.04</v>
+        <v>420339.19</v>
       </c>
       <c r="F3" t="n">
-        <v>13344.9</v>
+        <v>163479.065</v>
       </c>
       <c r="G3" t="n">
-        <v>1315.21</v>
+        <v>22204.54167131</v>
       </c>
       <c r="H3" t="n">
-        <v>1130</v>
+        <v>2320</v>
       </c>
       <c r="I3" t="n">
-        <v>187.9</v>
+        <v>296.51870272</v>
       </c>
       <c r="J3" t="n">
-        <v>1276.65</v>
+        <v>1448.26</v>
       </c>
       <c r="K3" t="n">
-        <v>688.88</v>
+        <v>207.84619781</v>
       </c>
       <c r="L3" t="n">
-        <v>5063.13</v>
+        <v>1305.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1118.28</v>
+        <v>1442.236</v>
       </c>
       <c r="N3" t="n">
-        <v>165.67</v>
+        <v>295.31770272</v>
       </c>
       <c r="O3" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P3" t="n">
-        <v>1240</v>
+        <v>2428</v>
       </c>
       <c r="Q3" t="n">
-        <v>1645.97</v>
+        <v>2199.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1514.86</v>
+        <v>2134.02</v>
       </c>
       <c r="S3" t="n">
-        <v>2245.44</v>
+        <v>3067.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1160</v>
+        <v>2342</v>
       </c>
       <c r="U3" t="n">
-        <v>3152.2876227</v>
+        <v>33956.56769781</v>
       </c>
       <c r="V3" t="n">
-        <v>1813.17</v>
+        <v>22499.85937403</v>
       </c>
       <c r="W3" t="n">
-        <v>475.94</v>
+        <v>866.65</v>
       </c>
       <c r="X3" t="n">
-        <v>439.36</v>
+        <v>828.83</v>
       </c>
       <c r="Y3" t="n">
-        <v>664.85</v>
+        <v>1316.19</v>
       </c>
       <c r="Z3" t="n">
-        <v>43522.2039</v>
+        <v>214758.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>5218.01</v>
+        <v>29745.11375502</v>
       </c>
       <c r="AB3" t="n">
-        <v>38305.18</v>
+        <v>421644.59</v>
       </c>
       <c r="AC3" t="n">
-        <v>14463.1700683457</v>
+        <v>164921.301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5283.64</v>
+        <v>31551.23751537</v>
       </c>
       <c r="C4" t="n">
-        <v>37526.56</v>
+        <v>228775.33</v>
       </c>
       <c r="D4" t="n">
-        <v>2859.49</v>
+        <v>32681.9314</v>
       </c>
       <c r="E4" t="n">
-        <v>27142.04</v>
+        <v>313715.137</v>
       </c>
       <c r="F4" t="n">
-        <v>11718.75</v>
+        <v>180082.94</v>
       </c>
       <c r="G4" t="n">
-        <v>1508.43</v>
+        <v>24497.05129823</v>
       </c>
       <c r="H4" t="n">
-        <v>1199</v>
+        <v>2472</v>
       </c>
       <c r="I4" t="n">
-        <v>179.34</v>
+        <v>282.38</v>
       </c>
       <c r="J4" t="n">
-        <v>802.5700000000001</v>
+        <v>1582.29</v>
       </c>
       <c r="K4" t="n">
-        <v>156.7</v>
+        <v>178.61450829</v>
       </c>
       <c r="L4" t="n">
-        <v>848.41</v>
+        <v>868.13</v>
       </c>
       <c r="M4" t="n">
-        <v>765.8099999999999</v>
+        <v>1575.32</v>
       </c>
       <c r="N4" t="n">
-        <v>171.51</v>
+        <v>281.17668161</v>
       </c>
       <c r="O4" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P4" t="n">
-        <v>1310</v>
+        <v>2579</v>
       </c>
       <c r="Q4" t="n">
-        <v>1357.65</v>
+        <v>2269.13</v>
       </c>
       <c r="R4" t="n">
-        <v>1339.2</v>
+        <v>1949.46</v>
       </c>
       <c r="S4" t="n">
-        <v>1748.89</v>
+        <v>2478.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1224</v>
+        <v>2494</v>
       </c>
       <c r="U4" t="n">
-        <v>3016.1949</v>
+        <v>32860.54590829</v>
       </c>
       <c r="V4" t="n">
-        <v>2036.90271945</v>
+        <v>24778.22797984</v>
       </c>
       <c r="W4" t="n">
-        <v>388.76</v>
+        <v>881.17</v>
       </c>
       <c r="X4" t="n">
-        <v>371.79</v>
+        <v>724.97</v>
       </c>
       <c r="Y4" t="n">
-        <v>512.38</v>
+        <v>1020.29</v>
       </c>
       <c r="Z4" t="n">
-        <v>38329.1286</v>
+        <v>230357.62</v>
       </c>
       <c r="AA4" t="n">
-        <v>5875.45</v>
+        <v>31833.61751537</v>
       </c>
       <c r="AB4" t="n">
-        <v>27990.4551</v>
+        <v>314583.267</v>
       </c>
       <c r="AC4" t="n">
-        <v>12484.55</v>
+        <v>181658.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5808.31</v>
+        <v>33538.25</v>
       </c>
       <c r="C5" t="n">
-        <v>41520.48</v>
+        <v>237403.27</v>
       </c>
       <c r="D5" t="n">
-        <v>3992.28</v>
+        <v>47953.66</v>
       </c>
       <c r="E5" t="n">
-        <v>31269.96</v>
+        <v>466632.02</v>
       </c>
       <c r="F5" t="n">
-        <v>12305.92</v>
+        <v>197915.96</v>
       </c>
       <c r="G5" t="n">
-        <v>1717.93</v>
+        <v>29714.53</v>
       </c>
       <c r="H5" t="n">
-        <v>1261</v>
+        <v>2468</v>
       </c>
       <c r="I5" t="n">
-        <v>189.62</v>
+        <v>283.79</v>
       </c>
       <c r="J5" t="n">
-        <v>937.23</v>
+        <v>1673.92</v>
       </c>
       <c r="K5" t="n">
-        <v>170.8</v>
+        <v>263.89</v>
       </c>
       <c r="L5" t="n">
-        <v>845.3</v>
+        <v>1439.32</v>
       </c>
       <c r="M5" t="n">
-        <v>872.6</v>
+        <v>1663.57</v>
       </c>
       <c r="N5" t="n">
-        <v>179.39</v>
+        <v>282.59</v>
       </c>
       <c r="O5" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P5" t="n">
-        <v>1372</v>
+        <v>2574</v>
       </c>
       <c r="Q5" t="n">
-        <v>1497.04</v>
+        <v>2115.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1307.4</v>
+        <v>1849.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1649.6</v>
+        <v>2444.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1287</v>
+        <v>2489</v>
       </c>
       <c r="U5" t="n">
-        <v>4163.084</v>
+        <v>48373</v>
       </c>
       <c r="V5" t="n">
-        <v>2269.92231608</v>
+        <v>29997.12</v>
       </c>
       <c r="W5" t="n">
-        <v>378.63</v>
+        <v>1057.67</v>
       </c>
       <c r="X5" t="n">
-        <v>350.74</v>
+        <v>815.89</v>
       </c>
       <c r="Y5" t="n">
-        <v>449.42</v>
+        <v>1106.27</v>
       </c>
       <c r="Z5" t="n">
-        <v>42457.716</v>
+        <v>239077.19</v>
       </c>
       <c r="AA5" t="n">
-        <v>6428.46</v>
+        <v>33822.04</v>
       </c>
       <c r="AB5" t="n">
-        <v>32115.27</v>
+        <v>468729</v>
       </c>
       <c r="AC5" t="n">
-        <v>13178.517</v>
+        <v>199579.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6505.83</v>
+        <v>36517.75</v>
       </c>
       <c r="C6" t="n">
-        <v>36309.35</v>
+        <v>370823.17</v>
       </c>
       <c r="D6" t="n">
-        <v>5672.91</v>
+        <v>73188.22</v>
       </c>
       <c r="E6" t="n">
-        <v>41576.19</v>
+        <v>741378.0732</v>
       </c>
       <c r="F6" t="n">
-        <v>10998.47</v>
+        <v>313910.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1996.65</v>
+        <v>32013.11</v>
       </c>
       <c r="H6" t="n">
-        <v>1353</v>
+        <v>2592</v>
       </c>
       <c r="I6" t="n">
-        <v>208.91</v>
+        <v>277.35</v>
       </c>
       <c r="J6" t="n">
-        <v>746.22</v>
+        <v>1723.79</v>
       </c>
       <c r="K6" t="n">
-        <v>154.83</v>
+        <v>194.87</v>
       </c>
       <c r="L6" t="n">
-        <v>757.76</v>
+        <v>1007.19</v>
       </c>
       <c r="M6" t="n">
-        <v>690.17</v>
+        <v>1713.89</v>
       </c>
       <c r="N6" t="n">
-        <v>197.5</v>
+        <v>276.14</v>
       </c>
       <c r="O6" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P6" t="n">
-        <v>1463</v>
+        <v>2696</v>
       </c>
       <c r="Q6" t="n">
-        <v>1266.5</v>
+        <v>3234.68</v>
       </c>
       <c r="R6" t="n">
-        <v>1259.43</v>
+        <v>1974.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1783.01</v>
+        <v>3239.36</v>
       </c>
       <c r="T6" t="n">
-        <v>1377</v>
+        <v>2613</v>
       </c>
       <c r="U6" t="n">
-        <v>5827.7329</v>
+        <v>73383.09</v>
       </c>
       <c r="V6" t="n">
-        <v>2577.18</v>
+        <v>32289.25</v>
       </c>
       <c r="W6" t="n">
-        <v>315.81</v>
+        <v>1415.19</v>
       </c>
       <c r="X6" t="n">
-        <v>315.17</v>
+        <v>1004.93</v>
       </c>
       <c r="Y6" t="n">
-        <v>470.55</v>
+        <v>1504.48</v>
       </c>
       <c r="Z6" t="n">
-        <v>37055.5682</v>
+        <v>372546.96</v>
       </c>
       <c r="AA6" t="n">
-        <v>7149.43</v>
+        <v>36795.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>42333.9472</v>
+        <v>742385.2632</v>
       </c>
       <c r="AC6" t="n">
-        <v>11688.6395</v>
+        <v>315624.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6936.08</v>
+        <v>42753.16</v>
       </c>
       <c r="C7" t="n">
-        <v>31810.55</v>
+        <v>529251.65</v>
       </c>
       <c r="D7" t="n">
-        <v>6470.87</v>
+        <v>170541</v>
       </c>
       <c r="E7" t="n">
-        <v>31099.38</v>
+        <v>2546837.74</v>
       </c>
       <c r="F7" t="n">
-        <v>10028.44</v>
+        <v>415680.99</v>
       </c>
       <c r="G7" t="n">
-        <v>2280.8385</v>
+        <v>36773.67</v>
       </c>
       <c r="H7" t="n">
-        <v>1358</v>
+        <v>2808</v>
       </c>
       <c r="I7" t="n">
-        <v>227.47</v>
+        <v>270.98</v>
       </c>
       <c r="J7" t="n">
-        <v>619.73</v>
+        <v>2211.05</v>
       </c>
       <c r="K7" t="n">
-        <v>152.86</v>
+        <v>498.48</v>
       </c>
       <c r="L7" t="n">
-        <v>565.4</v>
+        <v>3703.57</v>
       </c>
       <c r="M7" t="n">
-        <v>602.08</v>
+        <v>2199.76</v>
       </c>
       <c r="N7" t="n">
-        <v>218.0534</v>
+        <v>269.7</v>
       </c>
       <c r="O7" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P7" t="n">
-        <v>1467</v>
+        <v>2909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1161.06</v>
+        <v>3539.18</v>
       </c>
       <c r="R7" t="n">
-        <v>998.23</v>
+        <v>2850.71</v>
       </c>
       <c r="S7" t="n">
-        <v>1328.53</v>
+        <v>5178.19</v>
       </c>
       <c r="T7" t="n">
-        <v>1381</v>
+        <v>2827</v>
       </c>
       <c r="U7" t="n">
-        <v>6623.732</v>
+        <v>171039.48</v>
       </c>
       <c r="V7" t="n">
-        <v>2914.77</v>
+        <v>37043.37</v>
       </c>
       <c r="W7" t="n">
-        <v>278.75</v>
+        <v>2308.91</v>
       </c>
       <c r="X7" t="n">
-        <v>237.1837</v>
+        <v>1408.99</v>
       </c>
       <c r="Y7" t="n">
-        <v>333.2787</v>
+        <v>3156.96</v>
       </c>
       <c r="Z7" t="n">
-        <v>32430.2814</v>
+        <v>531462.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>7629.51</v>
+        <v>43024.14</v>
       </c>
       <c r="AB7" t="n">
-        <v>31664.7762</v>
+        <v>2550541.31</v>
       </c>
       <c r="AC7" t="n">
-        <v>10630.5143</v>
+        <v>417880.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12445.65</v>
+        <v>48468.16</v>
       </c>
       <c r="C8" t="n">
-        <v>88113.96000000001</v>
+        <v>505772.76</v>
       </c>
       <c r="D8" t="n">
-        <v>15808.62</v>
+        <v>94480.5</v>
       </c>
       <c r="E8" t="n">
-        <v>89217.11</v>
+        <v>1276194</v>
       </c>
       <c r="F8" t="n">
-        <v>23731.26</v>
+        <v>391498.97</v>
       </c>
       <c r="G8" t="n">
-        <v>3215.54</v>
+        <v>40855.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1411</v>
+        <v>3034</v>
       </c>
       <c r="I8" t="n">
-        <v>238.34</v>
+        <v>282.13</v>
       </c>
       <c r="J8" t="n">
-        <v>1289.94</v>
+        <v>1913.12</v>
       </c>
       <c r="K8" t="n">
-        <v>336.61</v>
+        <v>210.03</v>
       </c>
       <c r="L8" t="n">
-        <v>1251.778</v>
+        <v>1486.02</v>
       </c>
       <c r="M8" t="n">
-        <v>1272.38</v>
+        <v>1902.7</v>
       </c>
       <c r="N8" t="n">
-        <v>228.96</v>
+        <v>280.85</v>
       </c>
       <c r="O8" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
-        <v>1520</v>
+        <v>3134</v>
       </c>
       <c r="Q8" t="n">
-        <v>2675.47</v>
+        <v>3103.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1161.91</v>
+        <v>2638.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2698.9</v>
+        <v>3538.69</v>
       </c>
       <c r="T8" t="n">
-        <v>1434</v>
+        <v>3052</v>
       </c>
       <c r="U8" t="n">
-        <v>16145.23</v>
+        <v>95525</v>
       </c>
       <c r="V8" t="n">
-        <v>3444.5</v>
+        <v>41136.05</v>
       </c>
       <c r="W8" t="n">
-        <v>550.59</v>
+        <v>1969.11</v>
       </c>
       <c r="X8" t="n">
-        <v>278.99</v>
+        <v>1618.12</v>
       </c>
       <c r="Y8" t="n">
-        <v>552.9299999999999</v>
+        <v>2304.49</v>
       </c>
       <c r="Z8" t="n">
-        <v>89403.89</v>
+        <v>507685.88</v>
       </c>
       <c r="AA8" t="n">
-        <v>12683.99</v>
+        <v>48750.29</v>
       </c>
       <c r="AB8" t="n">
-        <v>90468.89</v>
+        <v>1277680</v>
       </c>
       <c r="AC8" t="n">
-        <v>25003.64</v>
+        <v>393401.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16746.6245</v>
+        <v>53461.939</v>
       </c>
       <c r="C9" t="n">
-        <v>324587.74</v>
+        <v>565254.863</v>
       </c>
       <c r="D9" t="n">
-        <v>35683.925785</v>
+        <v>87628.57316468</v>
       </c>
       <c r="E9" t="n">
-        <v>454771.2957</v>
+        <v>1123647.87935512</v>
       </c>
       <c r="F9" t="n">
-        <v>90526.52</v>
+        <v>447476.332</v>
       </c>
       <c r="G9" t="n">
-        <v>4682.7699</v>
+        <v>44761.426</v>
       </c>
       <c r="H9" t="n">
-        <v>1527</v>
+        <v>3467</v>
       </c>
       <c r="I9" t="n">
-        <v>253.8356</v>
+        <v>284.735</v>
       </c>
       <c r="J9" t="n">
-        <v>2553.15</v>
+        <v>1831.213</v>
       </c>
       <c r="K9" t="n">
-        <v>719.822929</v>
+        <v>152.26556296</v>
       </c>
       <c r="L9" t="n">
-        <v>5784.9278</v>
+        <v>977.2320395147</v>
       </c>
       <c r="M9" t="n">
-        <v>2537.83</v>
+        <v>1821.82</v>
       </c>
       <c r="N9" t="n">
-        <v>250.873</v>
+        <v>283.445</v>
       </c>
       <c r="O9" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P9" t="n">
-        <v>1636</v>
+        <v>3567</v>
       </c>
       <c r="Q9" t="n">
-        <v>5261.56</v>
+        <v>3307.17</v>
       </c>
       <c r="R9" t="n">
-        <v>2541.53</v>
+        <v>3016.53</v>
       </c>
       <c r="S9" t="n">
-        <v>6124.04</v>
+        <v>3450.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1550</v>
+        <v>3485</v>
       </c>
       <c r="U9" t="n">
-        <v>36403.748714</v>
+        <v>87780.83872764</v>
       </c>
       <c r="V9" t="n">
-        <v>4933.6429</v>
+        <v>45044.871</v>
       </c>
       <c r="W9" t="n">
-        <v>1447.02</v>
+        <v>1899.34</v>
       </c>
       <c r="X9" t="n">
-        <v>547.89</v>
+        <v>1753.53</v>
       </c>
       <c r="Y9" t="n">
-        <v>1567.74</v>
+        <v>2054.02</v>
       </c>
       <c r="Z9" t="n">
-        <v>327141</v>
+        <v>567086.076</v>
       </c>
       <c r="AA9" t="n">
-        <v>17000.4501</v>
+        <v>53746.674</v>
       </c>
       <c r="AB9" t="n">
-        <v>460556.2335</v>
+        <v>1124625.11139463</v>
       </c>
       <c r="AC9" t="n">
-        <v>93064</v>
+        <v>449298.152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18629.77</v>
+        <v>57290.34865435</v>
       </c>
       <c r="C10" t="n">
-        <v>120566.55</v>
+        <v>433547.905583383</v>
       </c>
       <c r="D10" t="n">
-        <v>23912.78</v>
+        <v>81926.95799179</v>
       </c>
       <c r="E10" t="n">
-        <v>265890.43</v>
+        <v>901103.164220975</v>
       </c>
       <c r="F10" t="n">
-        <v>44419.11</v>
+        <v>352428.057908447</v>
       </c>
       <c r="G10" t="n">
-        <v>6696.76</v>
+        <v>48758.18642478</v>
       </c>
       <c r="H10" t="n">
-        <v>1602</v>
+        <v>3567</v>
       </c>
       <c r="I10" t="n">
-        <v>270.35</v>
+        <v>291.08105342</v>
       </c>
       <c r="J10" t="n">
-        <v>799.88</v>
+        <v>1376.1316887953</v>
       </c>
       <c r="K10" t="n">
-        <v>218.62</v>
+        <v>110.29553097</v>
       </c>
       <c r="L10" t="n">
-        <v>1222.23</v>
+        <v>636.2410524083</v>
       </c>
       <c r="M10" t="n">
-        <v>794.79</v>
+        <v>1366.1420571045</v>
       </c>
       <c r="N10" t="n">
-        <v>268.21</v>
+        <v>289.37866788</v>
       </c>
       <c r="O10" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="P10" t="n">
-        <v>1711</v>
+        <v>3666</v>
       </c>
       <c r="Q10" t="n">
-        <v>1820.81</v>
+        <v>2493.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1664.93</v>
+        <v>2449.2</v>
       </c>
       <c r="S10" t="n">
-        <v>5522.78</v>
+        <v>3587.03</v>
       </c>
       <c r="T10" t="n">
-        <v>1625</v>
+        <v>3584</v>
       </c>
       <c r="U10" t="n">
-        <v>24131.39</v>
+        <v>82037.25</v>
       </c>
       <c r="V10" t="n">
-        <v>6964.97</v>
+        <v>49047.57</v>
       </c>
       <c r="W10" t="n">
-        <v>553.3</v>
+        <v>1267.87</v>
       </c>
       <c r="X10" t="n">
-        <v>452.33</v>
+        <v>1212.23</v>
       </c>
       <c r="Y10" t="n">
-        <v>1584.4</v>
+        <v>1966.15</v>
       </c>
       <c r="Z10" t="n">
-        <v>121366.43</v>
+        <v>434924.03</v>
       </c>
       <c r="AA10" t="n">
-        <v>18900.12</v>
+        <v>57581.03</v>
       </c>
       <c r="AB10" t="n">
-        <v>267112.66</v>
+        <v>901739.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>45213.9</v>
+        <v>353794.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20332.77</v>
+        <v>61428</v>
       </c>
       <c r="C11" t="n">
-        <v>242127.01</v>
+        <v>591623</v>
       </c>
       <c r="D11" t="n">
-        <v>50648.91</v>
+        <v>126509</v>
       </c>
       <c r="E11" t="n">
-        <v>533889</v>
+        <v>1273572</v>
       </c>
       <c r="F11" t="n">
-        <v>149455.96</v>
+        <v>482158</v>
       </c>
       <c r="G11" t="n">
-        <v>13928.17</v>
+        <v>52197</v>
       </c>
       <c r="H11" t="n">
-        <v>1696</v>
+        <v>3760</v>
       </c>
       <c r="I11" t="n">
-        <v>273.49</v>
+        <v>292</v>
       </c>
       <c r="J11" t="n">
-        <v>1812.11</v>
+        <v>1311</v>
       </c>
       <c r="K11" t="n">
-        <v>458.09</v>
+        <v>116</v>
       </c>
       <c r="L11" t="n">
-        <v>2097</v>
+        <v>587</v>
       </c>
       <c r="M11" t="n">
-        <v>1802.69</v>
+        <v>1304</v>
       </c>
       <c r="N11" t="n">
-        <v>271.48</v>
+        <v>291</v>
       </c>
       <c r="O11" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="P11" t="n">
-        <v>1804</v>
+        <v>3857</v>
       </c>
       <c r="Q11" t="n">
-        <v>3277.14</v>
+        <v>3050.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1844.09</v>
+        <v>2440.91</v>
       </c>
       <c r="S11" t="n">
-        <v>3478.01</v>
+        <v>3288.45</v>
       </c>
       <c r="T11" t="n">
-        <v>1718</v>
+        <v>3777</v>
       </c>
       <c r="U11" t="n">
-        <v>51106.99</v>
+        <v>126624</v>
       </c>
       <c r="V11" t="n">
-        <v>14200.19</v>
+        <v>52487.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1201.34</v>
+        <v>1722.95</v>
       </c>
       <c r="X11" t="n">
-        <v>557.6900000000001</v>
+        <v>1231.83</v>
       </c>
       <c r="Y11" t="n">
-        <v>1240.64</v>
+        <v>1799.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>243939.12</v>
+        <v>592935</v>
       </c>
       <c r="AA11" t="n">
-        <v>20606.26</v>
+        <v>61720</v>
       </c>
       <c r="AB11" t="n">
-        <v>535987</v>
+        <v>1274158.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>151258.65</v>
+        <v>483461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26701.5155472</v>
+        <v>65173.71427255</v>
       </c>
       <c r="C12" t="n">
-        <v>263220.54</v>
+        <v>796024.465067324</v>
       </c>
       <c r="D12" t="n">
-        <v>41806.4214</v>
+        <v>167323.96239615</v>
       </c>
       <c r="E12" t="n">
-        <v>543465.92</v>
+        <v>2067631.85783769</v>
       </c>
       <c r="F12" t="n">
-        <v>190917.102</v>
+        <v>642395.806250421</v>
       </c>
       <c r="G12" t="n">
-        <v>19160.46960591</v>
+        <v>56072.58424762</v>
       </c>
       <c r="H12" t="n">
-        <v>2041</v>
+        <v>4140</v>
       </c>
       <c r="I12" t="n">
-        <v>282.96594524</v>
+        <v>305.47247818</v>
       </c>
       <c r="J12" t="n">
-        <v>2202.05</v>
+        <v>1213.70343112327</v>
       </c>
       <c r="K12" t="n">
-        <v>345.5552912</v>
+        <v>127.89727737</v>
       </c>
       <c r="L12" t="n">
-        <v>2167.63</v>
+        <v>620.65795574959</v>
       </c>
       <c r="M12" t="n">
-        <v>2193.311</v>
+        <v>1209.49481479851</v>
       </c>
       <c r="N12" t="n">
-        <v>281.68394524</v>
+        <v>280.92107026</v>
       </c>
       <c r="O12" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="P12" t="n">
-        <v>2149</v>
+        <v>4233</v>
       </c>
       <c r="Q12" t="n">
-        <v>2808.08</v>
+        <v>3473.07</v>
       </c>
       <c r="R12" t="n">
-        <v>2319.74</v>
+        <v>2646.8</v>
       </c>
       <c r="S12" t="n">
-        <v>3306.75</v>
+        <v>3474.92</v>
       </c>
       <c r="T12" t="n">
-        <v>2063</v>
+        <v>4154</v>
       </c>
       <c r="U12" t="n">
-        <v>42151.9766912</v>
+        <v>167451.85967352</v>
       </c>
       <c r="V12" t="n">
-        <v>19442.15355115</v>
+        <v>56353.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1290.86</v>
+        <v>2329.37</v>
       </c>
       <c r="X12" t="n">
-        <v>890.24</v>
+        <v>1552.96</v>
       </c>
       <c r="Y12" t="n">
-        <v>1412.64</v>
+        <v>2340.89</v>
       </c>
       <c r="Z12" t="n">
-        <v>265422.59</v>
+        <v>797238.17</v>
       </c>
       <c r="AA12" t="n">
-        <v>26984.48149244</v>
+        <v>65479.19</v>
       </c>
       <c r="AB12" t="n">
-        <v>545633.55</v>
+        <v>2068252.51579344</v>
       </c>
       <c r="AC12" t="n">
-        <v>193110.413</v>
+        <v>643605.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29448.5950523</v>
+        <v>70390.25999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>213309.84</v>
+        <v>914670.505162726</v>
       </c>
       <c r="D13" t="n">
-        <v>33748.7215</v>
+        <v>187279.61125975</v>
       </c>
       <c r="E13" t="n">
-        <v>420339.19</v>
+        <v>2579050.23690187</v>
       </c>
       <c r="F13" t="n">
-        <v>163479.065</v>
+        <v>750255.165371421</v>
       </c>
       <c r="G13" t="n">
-        <v>22204.54167131</v>
+        <v>60474.5522496</v>
       </c>
       <c r="H13" t="n">
-        <v>2320</v>
+        <v>4603</v>
       </c>
       <c r="I13" t="n">
-        <v>296.51870272</v>
+        <v>304.12833928</v>
       </c>
       <c r="J13" t="n">
-        <v>1448.26</v>
+        <v>1417.66868948476</v>
       </c>
       <c r="K13" t="n">
-        <v>207.84619781</v>
+        <v>146.38749303</v>
       </c>
       <c r="L13" t="n">
-        <v>1305.4</v>
+        <v>683.8794429094499</v>
       </c>
       <c r="M13" t="n">
-        <v>1442.236</v>
+        <v>1300.95355169378</v>
       </c>
       <c r="N13" t="n">
-        <v>295.31770272</v>
+        <v>280.57877311</v>
       </c>
       <c r="O13" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P13" t="n">
-        <v>2428</v>
+        <v>4693</v>
       </c>
       <c r="Q13" t="n">
-        <v>2199.42</v>
+        <v>3639.78</v>
       </c>
       <c r="R13" t="n">
-        <v>2134.02</v>
+        <v>3312.72</v>
       </c>
       <c r="S13" t="n">
-        <v>3067.46</v>
+        <v>3731.69</v>
       </c>
       <c r="T13" t="n">
-        <v>2342</v>
+        <v>4615</v>
       </c>
       <c r="U13" t="n">
-        <v>33956.56769781</v>
+        <v>187425.9</v>
       </c>
       <c r="V13" t="n">
-        <v>22499.85937403</v>
+        <v>60755.13</v>
       </c>
       <c r="W13" t="n">
-        <v>866.65</v>
+        <v>2530.14</v>
       </c>
       <c r="X13" t="n">
-        <v>828.83</v>
+        <v>2130.09</v>
       </c>
       <c r="Y13" t="n">
-        <v>1316.19</v>
+        <v>2571.27</v>
       </c>
       <c r="Z13" t="n">
-        <v>214758.1</v>
+        <v>916088.1800000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>29745.11375502</v>
+        <v>70694.39</v>
       </c>
       <c r="AB13" t="n">
-        <v>421644.59</v>
+        <v>2579734.1</v>
       </c>
       <c r="AC13" t="n">
-        <v>164921.301</v>
+        <v>751556.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>31551.23751537</v>
-      </c>
-      <c r="C14" t="n">
-        <v>228775.33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>32681.9314</v>
-      </c>
-      <c r="E14" t="n">
-        <v>313715.137</v>
-      </c>
-      <c r="F14" t="n">
-        <v>180082.94</v>
-      </c>
-      <c r="G14" t="n">
-        <v>24497.05129823</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2472</v>
-      </c>
-      <c r="I14" t="n">
-        <v>282.38</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1582.29</v>
-      </c>
-      <c r="K14" t="n">
-        <v>178.61450829</v>
-      </c>
-      <c r="L14" t="n">
-        <v>868.13</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1575.32</v>
-      </c>
-      <c r="N14" t="n">
-        <v>281.17668161</v>
-      </c>
-      <c r="O14" t="n">
-        <v>107</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2579</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>2269.13</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1949.46</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2478.38</v>
-      </c>
+        <v>3089.26</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>2494</v>
+        <v>4917</v>
       </c>
       <c r="U14" t="n">
-        <v>32860.54590829</v>
+        <v>185725</v>
       </c>
       <c r="V14" t="n">
-        <v>24778.22797984</v>
+        <v>64245</v>
       </c>
       <c r="W14" t="n">
-        <v>881.17</v>
-      </c>
-      <c r="X14" t="n">
-        <v>724.97</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1020.29</v>
-      </c>
+        <v>1975.61</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>230357.62</v>
+        <v>788006</v>
       </c>
       <c r="AA14" t="n">
-        <v>31833.61751537</v>
+        <v>73312</v>
       </c>
       <c r="AB14" t="n">
-        <v>314583.267</v>
+        <v>2245095</v>
       </c>
       <c r="AC14" t="n">
-        <v>181658.26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>33538.25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>237403.27</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47953.66</v>
-      </c>
-      <c r="E15" t="n">
-        <v>466632.02</v>
-      </c>
-      <c r="F15" t="n">
-        <v>197915.96</v>
-      </c>
-      <c r="G15" t="n">
-        <v>29714.53</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2468</v>
-      </c>
-      <c r="I15" t="n">
-        <v>283.79</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1673.92</v>
-      </c>
-      <c r="K15" t="n">
-        <v>263.89</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1439.32</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1663.57</v>
-      </c>
-      <c r="N15" t="n">
-        <v>282.59</v>
-      </c>
-      <c r="O15" t="n">
-        <v>106</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2574</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2115.98</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1849.65</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2444.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2489</v>
-      </c>
-      <c r="U15" t="n">
-        <v>48373</v>
-      </c>
-      <c r="V15" t="n">
-        <v>29997.12</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1057.67</v>
-      </c>
-      <c r="X15" t="n">
-        <v>815.89</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1106.27</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>239077.19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>33822.04</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>468729</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>199579.53</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>36517.75</v>
-      </c>
-      <c r="C16" t="n">
-        <v>370823.17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>73188.22</v>
-      </c>
-      <c r="E16" t="n">
-        <v>741378.0732</v>
-      </c>
-      <c r="F16" t="n">
-        <v>313910.42</v>
-      </c>
-      <c r="G16" t="n">
-        <v>32013.11</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2592</v>
-      </c>
-      <c r="I16" t="n">
-        <v>277.35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1723.79</v>
-      </c>
-      <c r="K16" t="n">
-        <v>194.87</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1007.19</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1713.89</v>
-      </c>
-      <c r="N16" t="n">
-        <v>276.14</v>
-      </c>
-      <c r="O16" t="n">
-        <v>104</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2696</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3234.68</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1974.38</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3239.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2613</v>
-      </c>
-      <c r="U16" t="n">
-        <v>73383.09</v>
-      </c>
-      <c r="V16" t="n">
-        <v>32289.25</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1415.19</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1004.93</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1504.48</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>372546.96</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>36795.1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>742385.2632</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>315624.31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>42753.16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>529251.65</v>
-      </c>
-      <c r="D17" t="n">
-        <v>170541</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2546837.74</v>
-      </c>
-      <c r="F17" t="n">
-        <v>415680.99</v>
-      </c>
-      <c r="G17" t="n">
-        <v>36773.67</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2808</v>
-      </c>
-      <c r="I17" t="n">
-        <v>270.98</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2211.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>498.48</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3703.57</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2199.76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>101</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2909</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3539.18</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2850.71</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5178.19</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2827</v>
-      </c>
-      <c r="U17" t="n">
-        <v>171039.48</v>
-      </c>
-      <c r="V17" t="n">
-        <v>37043.37</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2308.91</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1408.99</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>3156.96</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>531462.7</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>43024.14</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>2550541.31</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>417880.75</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>48468.16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>505772.76</v>
-      </c>
-      <c r="D18" t="n">
-        <v>94480.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1276194.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>391498.97</v>
-      </c>
-      <c r="G18" t="n">
-        <v>40855.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3034</v>
-      </c>
-      <c r="I18" t="n">
-        <v>282.13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1913.12</v>
-      </c>
-      <c r="K18" t="n">
-        <v>210.03</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1486.02</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1902.7</v>
-      </c>
-      <c r="N18" t="n">
-        <v>280.85</v>
-      </c>
-      <c r="O18" t="n">
-        <v>100</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3134</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3103.64</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2638.3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3538.69</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3052</v>
-      </c>
-      <c r="U18" t="n">
-        <v>95525</v>
-      </c>
-      <c r="V18" t="n">
-        <v>41136.05</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1969.11</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1618.12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2304.49</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>507685.88</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>48750.29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1277680</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>393401.67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>53461.939</v>
-      </c>
-      <c r="C19" t="n">
-        <v>565254.863</v>
-      </c>
-      <c r="D19" t="n">
-        <v>87628.57316468</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1123647.87935512</v>
-      </c>
-      <c r="F19" t="n">
-        <v>447476.332</v>
-      </c>
-      <c r="G19" t="n">
-        <v>44761.426</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3467</v>
-      </c>
-      <c r="I19" t="n">
-        <v>284.735</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1831.213</v>
-      </c>
-      <c r="K19" t="n">
-        <v>152.26556296</v>
-      </c>
-      <c r="L19" t="n">
-        <v>977.2320395147</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1821.82</v>
-      </c>
-      <c r="N19" t="n">
-        <v>283.445</v>
-      </c>
-      <c r="O19" t="n">
-        <v>100</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3567</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3307.17</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3016.53</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3450.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3485</v>
-      </c>
-      <c r="U19" t="n">
-        <v>87780.83872764</v>
-      </c>
-      <c r="V19" t="n">
-        <v>45044.871</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1899.34</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1753.53</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2054.02</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>567086.076</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>53746.674</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1124625.11139463</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>449298.152</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>57290.34865435</v>
-      </c>
-      <c r="C20" t="n">
-        <v>433547.905583383</v>
-      </c>
-      <c r="D20" t="n">
-        <v>81926.95799179</v>
-      </c>
-      <c r="E20" t="n">
-        <v>901103.164220975</v>
-      </c>
-      <c r="F20" t="n">
-        <v>352428.057908447</v>
-      </c>
-      <c r="G20" t="n">
-        <v>48758.18642478</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3567</v>
-      </c>
-      <c r="I20" t="n">
-        <v>291.08105342</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1376.1316887953</v>
-      </c>
-      <c r="K20" t="n">
-        <v>110.29553097</v>
-      </c>
-      <c r="L20" t="n">
-        <v>636.2410524083</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1366.1420571045</v>
-      </c>
-      <c r="N20" t="n">
-        <v>289.37866788</v>
-      </c>
-      <c r="O20" t="n">
-        <v>99</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3666</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2493.9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2449.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3587.03</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3584</v>
-      </c>
-      <c r="U20" t="n">
-        <v>82037.25</v>
-      </c>
-      <c r="V20" t="n">
-        <v>49047.57</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1267.87</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1212.23</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1966.15</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>434924.03</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>57581.03</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>901739.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>353794.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>61428</v>
-      </c>
-      <c r="C21" t="n">
-        <v>591623</v>
-      </c>
-      <c r="D21" t="n">
-        <v>126509</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1273572</v>
-      </c>
-      <c r="F21" t="n">
-        <v>482158</v>
-      </c>
-      <c r="G21" t="n">
-        <v>52197</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3760</v>
-      </c>
-      <c r="I21" t="n">
-        <v>292</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1311</v>
-      </c>
-      <c r="K21" t="n">
-        <v>116</v>
-      </c>
-      <c r="L21" t="n">
-        <v>587</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1304</v>
-      </c>
-      <c r="N21" t="n">
-        <v>291</v>
-      </c>
-      <c r="O21" t="n">
-        <v>97</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3857</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3050.12</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2440.91</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3288.45</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3777</v>
-      </c>
-      <c r="U21" t="n">
-        <v>126624.29</v>
-      </c>
-      <c r="V21" t="n">
-        <v>52487.62</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1722.95</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1231.83</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1799.1</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>592934.5699999999</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>61719.92</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1274158.8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>483461.26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>65173.71427255</v>
-      </c>
-      <c r="C22" t="n">
-        <v>796024.465067324</v>
-      </c>
-      <c r="D22" t="n">
-        <v>167323.96239615</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2067631.85783769</v>
-      </c>
-      <c r="F22" t="n">
-        <v>642395.806250421</v>
-      </c>
-      <c r="G22" t="n">
-        <v>56072.58424762</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4140</v>
-      </c>
-      <c r="I22" t="n">
-        <v>305.47247818</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1213.70343112327</v>
-      </c>
-      <c r="K22" t="n">
-        <v>127.89727737</v>
-      </c>
-      <c r="L22" t="n">
-        <v>620.65795574959</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1209.49481479851</v>
-      </c>
-      <c r="N22" t="n">
-        <v>280.92107026</v>
-      </c>
-      <c r="O22" t="n">
-        <v>93</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4233</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3473.07</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2646.8</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3474.92</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4154</v>
-      </c>
-      <c r="U22" t="n">
-        <v>167451.85967352</v>
-      </c>
-      <c r="V22" t="n">
-        <v>56353.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2329.37</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1552.96</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2340.89</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>797238.17</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>65479.19</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2068252.51579344</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>643605.29</v>
+        <v>663429</v>
       </c>
     </row>
   </sheetData>
